--- a/Spray-Data-06.18.20.xlsx
+++ b/Spray-Data-06.18.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorte\OneDrive\Documents\R\Spray-data-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Arkansas/00-Students/04-Laura Ortega/Spray-data-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE42CBD1-E8EB-44DB-82D1-8486903C71B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5C1426-1EE8-5146-B48E-FB9082B1E642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FC0983DE-DC1A-462F-A210-F17A7B735587}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{FC0983DE-DC1A-462F-A210-F17A7B735587}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Genotype</t>
   </si>
@@ -33,22 +33,16 @@
     <t>Rep</t>
   </si>
   <si>
-    <t>Mock 30C-22C</t>
+    <t>Mock_30C-22C</t>
   </si>
   <si>
-    <t>Mock 30C-28C</t>
+    <t>Mock_30C-28C</t>
   </si>
   <si>
-    <t>Pathogen 30C-22 C</t>
+    <t>Pathogen_30C-22C</t>
   </si>
   <si>
-    <t>Pathogen 30C-28C</t>
-  </si>
-  <si>
-    <t>2.187.5</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Pathogen_30C-28C</t>
   </si>
 </sst>
 </file>
@@ -72,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,10 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,20 +414,21 @@
   <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>310111</v>
       </c>
@@ -466,7 +468,7 @@
         <v>93.61702127659575</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>310111</v>
       </c>
@@ -486,7 +488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>310111</v>
       </c>
@@ -506,7 +508,7 @@
         <v>89.189189189189193</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>310111</v>
       </c>
@@ -526,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>310111</v>
       </c>
@@ -546,7 +548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>310111</v>
       </c>
@@ -566,19 +568,13 @@
         <v>87.804878048780495</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>310111</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8">
         <v>85.714285714285708</v>
       </c>
@@ -586,19 +582,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>310111</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9">
         <v>100</v>
       </c>
@@ -606,19 +596,13 @@
         <v>97.849462365591393</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>310111</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10">
         <v>100</v>
       </c>
@@ -626,19 +610,13 @@
         <v>98.198198198198199</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>310111</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11">
         <v>100</v>
       </c>
@@ -646,19 +624,13 @@
         <v>93.548387096774192</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>310111</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12">
         <v>100</v>
       </c>
@@ -666,19 +638,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>310111</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13">
         <v>100</v>
       </c>
@@ -686,19 +652,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>310111</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14">
         <v>94.73684210526315</v>
       </c>
@@ -706,19 +666,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>310111</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15">
         <v>99</v>
       </c>
@@ -726,19 +680,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>310111</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16">
         <v>100</v>
       </c>
@@ -746,19 +694,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>310111</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17">
         <v>100</v>
       </c>
@@ -766,7 +708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>310131</v>
       </c>
@@ -786,7 +728,7 @@
         <v>54.166666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>310131</v>
       </c>
@@ -806,7 +748,7 @@
         <v>57.692307692307686</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>310131</v>
       </c>
@@ -826,7 +768,7 @@
         <v>19.402985074626866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>310131</v>
       </c>
@@ -846,7 +788,7 @@
         <v>40.845070422535215</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>310131</v>
       </c>
@@ -866,7 +808,7 @@
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>310131</v>
       </c>
@@ -886,16 +828,13 @@
         <v>29.906542056074763</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>310131</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
       <c r="D24" s="2">
         <v>2.0270270270270272</v>
       </c>
@@ -906,16 +845,13 @@
         <v>26.47058823529412</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>310131</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
       <c r="D25" s="2">
         <v>7.8431372549019605</v>
       </c>
@@ -926,19 +862,13 @@
         <v>34.117647058823529</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>310131</v>
       </c>
       <c r="B26">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" s="2">
         <v>52.884615384615387</v>
       </c>
@@ -946,19 +876,13 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>310131</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="2">
         <v>40.145985401459853</v>
       </c>
@@ -966,19 +890,13 @@
         <v>34.848484848484851</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>310131</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" s="2">
         <v>16.535433070866144</v>
       </c>
@@ -986,19 +904,13 @@
         <v>42.268041237113401</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>310131</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" s="2">
         <v>36.111111111111107</v>
       </c>
@@ -1006,19 +918,13 @@
         <v>46.808510638297875</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>310131</v>
       </c>
       <c r="B30">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" s="2">
         <v>56.310679611650485</v>
       </c>
@@ -1026,19 +932,13 @@
         <v>27.731092436974791</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>310131</v>
       </c>
       <c r="B31">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" s="2">
         <v>8.6206896551724146</v>
       </c>
@@ -1046,47 +946,23 @@
         <v>28.125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>310131</v>
       </c>
       <c r="B32">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>310131</v>
       </c>
       <c r="B33">
         <v>16</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>310219</v>
       </c>
@@ -1106,7 +982,7 @@
         <v>44.736842105263158</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>310219</v>
       </c>
@@ -1126,7 +1002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>310219</v>
       </c>
@@ -1146,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>310219</v>
       </c>
@@ -1166,7 +1042,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>310219</v>
       </c>
@@ -1186,7 +1062,7 @@
         <v>60.377358490566039</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>310219</v>
       </c>
@@ -1206,7 +1082,7 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>310219</v>
       </c>
@@ -1226,7 +1102,7 @@
         <v>46.268656716417908</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>310219</v>
       </c>
@@ -1246,7 +1122,7 @@
         <v>70.833333333333343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>310219</v>
       </c>
@@ -1256,9 +1132,6 @@
       <c r="C42" s="2">
         <v>18.965517241379299</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" s="2">
         <v>23.214285714285715</v>
       </c>
@@ -1266,7 +1139,7 @@
         <v>61.904761904761905</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>310219</v>
       </c>
@@ -1276,9 +1149,6 @@
       <c r="C43" s="2">
         <v>21.739130434782609</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" s="2">
         <v>45.098039215686278</v>
       </c>
@@ -1286,7 +1156,7 @@
         <v>70.833333333333343</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>310219</v>
       </c>
@@ -1296,9 +1166,6 @@
       <c r="C44" s="2">
         <v>25</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" s="2">
         <v>30</v>
       </c>
@@ -1306,7 +1173,7 @@
         <v>44.871794871794876</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>310219</v>
       </c>
@@ -1316,9 +1183,6 @@
       <c r="C45" s="2">
         <v>24.489795918367346</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" s="2">
         <v>43.902439024390247</v>
       </c>
@@ -1326,7 +1190,7 @@
         <v>26.190476190476193</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>310219</v>
       </c>
@@ -1336,9 +1200,6 @@
       <c r="C46" s="2">
         <v>9.8765432098765427</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" s="2">
         <v>42.372881355932201</v>
       </c>
@@ -1346,7 +1207,7 @@
         <v>54.166666666666664</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>310219</v>
       </c>
@@ -1356,9 +1217,6 @@
       <c r="C47" s="2">
         <v>13.23529411764706</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" s="2">
         <v>66.666666666666657</v>
       </c>
@@ -1366,7 +1224,7 @@
         <v>80.952380952380949</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>310219</v>
       </c>
@@ -1376,17 +1234,11 @@
       <c r="C48" s="2">
         <v>19.17808219178082</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
       <c r="F48" s="2">
         <v>80.124223602484463</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>310219</v>
       </c>
@@ -1396,17 +1248,11 @@
       <c r="C49" s="2">
         <v>18.840579710144929</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
       <c r="F49" s="2">
         <v>57.692307692307686</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>310301</v>
       </c>
@@ -1426,7 +1272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>310301</v>
       </c>
@@ -1446,7 +1292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>310301</v>
       </c>
@@ -1466,7 +1312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>310301</v>
       </c>
@@ -1486,7 +1332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>310301</v>
       </c>
@@ -1506,7 +1352,7 @@
         <v>93.162393162393158</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>310301</v>
       </c>
@@ -1526,7 +1372,7 @@
         <v>87.804878048780495</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>310301</v>
       </c>
@@ -1546,16 +1392,13 @@
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>310301</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
       <c r="D57" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -1566,19 +1409,13 @@
         <v>85.294117647058826</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>310301</v>
       </c>
       <c r="B58">
         <v>9</v>
       </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" s="2">
         <v>95.375722543352609</v>
       </c>
@@ -1586,19 +1423,13 @@
         <v>80.625</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>310301</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" s="2">
         <v>95.973154362416096</v>
       </c>
@@ -1606,19 +1437,13 @@
         <v>90.825688073394488</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>310301</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" s="2">
         <v>95.161290322580655</v>
       </c>
@@ -1626,19 +1451,13 @@
         <v>83.146067415730343</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>310301</v>
       </c>
       <c r="B61">
         <v>12</v>
       </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" s="2">
         <v>98.591549295774655</v>
       </c>
@@ -1646,19 +1465,13 @@
         <v>76.13636363636364</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>310301</v>
       </c>
       <c r="B62">
         <v>13</v>
       </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" s="2">
         <v>94.73684210526315</v>
       </c>
@@ -1666,19 +1479,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>310301</v>
       </c>
       <c r="B63">
         <v>14</v>
       </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" s="2">
         <v>95</v>
       </c>
@@ -1686,47 +1493,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>310301</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
       <c r="F64" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>310301</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
       <c r="F65" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>310354</v>
       </c>
@@ -1746,7 +1535,7 @@
         <v>3.225806451612903</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>310354</v>
       </c>
@@ -1766,7 +1555,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>310354</v>
       </c>
@@ -1786,7 +1575,7 @@
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>310354</v>
       </c>
@@ -1806,7 +1595,7 @@
         <v>34.653465346534652</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>310354</v>
       </c>
@@ -1826,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>310354</v>
       </c>
@@ -1846,7 +1635,7 @@
         <v>47.663551401869157</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>310354</v>
       </c>
@@ -1866,7 +1655,7 @@
         <v>31.958762886597935</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>310354</v>
       </c>
@@ -1876,9 +1665,6 @@
       <c r="C73" s="2">
         <v>6.140350877192982</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" s="2">
         <v>91.256830601092901</v>
       </c>
@@ -1886,19 +1672,13 @@
         <v>30.851063829787233</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>310354</v>
       </c>
       <c r="B74">
         <v>9</v>
       </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
       <c r="E74" s="2">
         <v>89.516129032258064</v>
       </c>
@@ -1906,19 +1686,13 @@
         <v>31.372549019607842</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>310354</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" s="2">
         <v>97.857142857142847</v>
       </c>
@@ -1926,19 +1700,13 @@
         <v>34.482758620689658</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>310354</v>
       </c>
       <c r="B76">
         <v>11</v>
       </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
       <c r="E76" s="2">
         <v>96.621621621621628</v>
       </c>
@@ -1946,19 +1714,13 @@
         <v>14.193548387096774</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>310354</v>
       </c>
       <c r="B77">
         <v>12</v>
       </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" s="2">
         <v>77.777777777777786</v>
       </c>
@@ -1966,19 +1728,13 @@
         <v>10.714285714285714</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>310354</v>
       </c>
       <c r="B78">
         <v>13</v>
       </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" s="2">
         <v>100</v>
       </c>
@@ -1986,19 +1742,13 @@
         <v>18.055555555555554</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>310354</v>
       </c>
       <c r="B79">
         <v>14</v>
       </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
       <c r="E79" s="2">
         <v>100</v>
       </c>
@@ -2006,47 +1756,23 @@
         <v>34.93150684931507</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>310354</v>
       </c>
       <c r="B80">
         <v>15</v>
       </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>310354</v>
       </c>
       <c r="B81">
         <v>16</v>
       </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>310645</v>
       </c>
@@ -2066,7 +1792,7 @@
         <v>37.373737373737377</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>310645</v>
       </c>
@@ -2086,7 +1812,7 @@
         <v>5.4726368159203984</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>310645</v>
       </c>
@@ -2106,7 +1832,7 @@
         <v>8.3870967741935498</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>310645</v>
       </c>
@@ -2126,7 +1852,7 @@
         <v>43.125</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>310645</v>
       </c>
@@ -2146,7 +1872,7 @@
         <v>9.1397849462365599</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>310645</v>
       </c>
@@ -2166,7 +1892,7 @@
         <v>11.904761904761903</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>310645</v>
       </c>
@@ -2186,7 +1912,7 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>310645</v>
       </c>
@@ -2206,19 +1932,13 @@
         <v>12.751677852348994</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>310645</v>
       </c>
       <c r="B90">
         <v>9</v>
       </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
       <c r="E90" s="2">
         <v>51.219512195121951</v>
       </c>
@@ -2226,19 +1946,13 @@
         <v>19.827586206896552</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>310645</v>
       </c>
       <c r="B91">
         <v>10</v>
       </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" s="2">
         <v>64.761904761904759</v>
       </c>
@@ -2246,19 +1960,13 @@
         <v>14.503816793893129</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>310645</v>
       </c>
       <c r="B92">
         <v>11</v>
       </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
       <c r="E92" s="2">
         <v>54.166666666666664</v>
       </c>
@@ -2266,19 +1974,13 @@
         <v>28.313253012048197</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>310645</v>
       </c>
       <c r="B93">
         <v>12</v>
       </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
       <c r="E93" s="2">
         <v>100</v>
       </c>
@@ -2286,19 +1988,13 @@
         <v>24.832214765100673</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>310645</v>
       </c>
       <c r="B94">
         <v>13</v>
       </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
       <c r="E94" s="2">
         <v>90.909090909090907</v>
       </c>
@@ -2306,19 +2002,13 @@
         <v>69.166666666666671</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>310645</v>
       </c>
       <c r="B95">
         <v>14</v>
       </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
       <c r="E95" s="2">
         <v>58.536585365853654</v>
       </c>
@@ -2326,47 +2016,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>310645</v>
       </c>
       <c r="B96">
         <v>15</v>
       </c>
-      <c r="C96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>310645</v>
       </c>
       <c r="B97">
         <v>16</v>
       </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>310747</v>
       </c>
@@ -2386,7 +2052,7 @@
         <v>89.102564102564102</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>310747</v>
       </c>
@@ -2406,7 +2072,7 @@
         <v>84.782608695652172</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>310747</v>
       </c>
@@ -2426,7 +2092,7 @@
         <v>74.193548387096769</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>310747</v>
       </c>
@@ -2446,7 +2112,7 @@
         <v>69.879518072289159</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>310747</v>
       </c>
@@ -2466,7 +2132,7 @@
         <v>41.968911917098445</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>310747</v>
       </c>
@@ -2486,7 +2152,7 @@
         <v>54.482758620689651</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>310747</v>
       </c>
@@ -2506,7 +2172,7 @@
         <v>27.34375</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>310747</v>
       </c>
@@ -2526,7 +2192,7 @@
         <v>42.1875</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>310747</v>
       </c>
@@ -2536,9 +2202,6 @@
       <c r="C106" s="2">
         <v>8.5714285714285712</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
       <c r="E106" s="2">
         <v>55.232558139534881</v>
       </c>
@@ -2546,7 +2209,7 @@
         <v>25.827814569536422</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>310747</v>
       </c>
@@ -2556,9 +2219,6 @@
       <c r="C107" s="2">
         <v>7.9545454545454541</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
       <c r="E107" s="2">
         <v>72.727272727272734</v>
       </c>
@@ -2566,7 +2226,7 @@
         <v>77.319587628865989</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>310747</v>
       </c>
@@ -2576,9 +2236,6 @@
       <c r="C108" s="2">
         <v>6.0606060606060606</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
       <c r="E108" s="2">
         <v>52.317880794701985</v>
       </c>
@@ -2586,7 +2243,7 @@
         <v>31.016042780748666</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>310747</v>
       </c>
@@ -2596,9 +2253,6 @@
       <c r="C109" s="2">
         <v>0</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
       <c r="E109" s="2">
         <v>82.634730538922156</v>
       </c>
@@ -2606,7 +2260,7 @@
         <v>36.875</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>310747</v>
       </c>
@@ -2616,9 +2270,6 @@
       <c r="C110" s="2">
         <v>0.78125</v>
       </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
       <c r="E110" s="2">
         <v>68.309859154929569</v>
       </c>
@@ -2626,7 +2277,7 @@
         <v>39.097744360902254</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>310747</v>
       </c>
@@ -2636,9 +2287,6 @@
       <c r="C111" s="2">
         <v>0</v>
       </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
       <c r="E111" s="2">
         <v>100</v>
       </c>
@@ -2646,7 +2294,7 @@
         <v>66.153846153846146</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>310747</v>
       </c>
@@ -2656,17 +2304,11 @@
       <c r="C112" s="2">
         <v>2.2727272727272729</v>
       </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
       <c r="F112" s="2">
         <v>49.019607843137251</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>310747</v>
       </c>
@@ -2676,17 +2318,11 @@
       <c r="C113" s="2">
         <v>2.9585798816568047</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
       <c r="F113" s="2">
         <v>72.820512820512818</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>310802</v>
       </c>
@@ -2706,7 +2342,7 @@
         <v>38.862559241706165</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>310802</v>
       </c>
@@ -2726,7 +2362,7 @@
         <v>42.622950819672127</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>310802</v>
       </c>
@@ -2746,7 +2382,7 @@
         <v>44.086021505376344</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>310802</v>
       </c>
@@ -2766,7 +2402,7 @@
         <v>23.316062176165804</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>310802</v>
       </c>
@@ -2786,7 +2422,7 @@
         <v>22.602739726027394</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>310802</v>
       </c>
@@ -2806,7 +2442,7 @@
         <v>17.293233082706767</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>310802</v>
       </c>
@@ -2826,7 +2462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>310802</v>
       </c>
@@ -2846,19 +2482,13 @@
         <v>35.570469798657719</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>310802</v>
       </c>
       <c r="B122">
         <v>9</v>
       </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>7</v>
-      </c>
       <c r="E122" s="2">
         <v>28.235294117647058</v>
       </c>
@@ -2866,19 +2496,13 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>310802</v>
       </c>
       <c r="B123">
         <v>10</v>
       </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
       <c r="E123" s="2">
         <v>36.363636363636367</v>
       </c>
@@ -2886,19 +2510,13 @@
         <v>27.835051546391753</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>310802</v>
       </c>
       <c r="B124">
         <v>11</v>
       </c>
-      <c r="C124" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" t="s">
-        <v>7</v>
-      </c>
       <c r="E124" s="2">
         <v>100</v>
       </c>
@@ -2906,19 +2524,13 @@
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>310802</v>
       </c>
       <c r="B125">
         <v>12</v>
       </c>
-      <c r="C125" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
       <c r="E125" s="2">
         <v>100</v>
       </c>
@@ -2926,19 +2538,13 @@
         <v>20.238095238095237</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>310802</v>
       </c>
       <c r="B126">
         <v>13</v>
       </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" t="s">
-        <v>7</v>
-      </c>
       <c r="E126" s="2">
         <v>30.985915492957744</v>
       </c>
@@ -2946,19 +2552,13 @@
         <v>11.442786069651742</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>310802</v>
       </c>
       <c r="B127">
         <v>14</v>
       </c>
-      <c r="C127" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" t="s">
-        <v>7</v>
-      </c>
       <c r="E127" s="2">
         <v>34.883720930232556</v>
       </c>
@@ -2966,47 +2566,29 @@
         <v>8.064516129032258</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>310802</v>
       </c>
       <c r="B128">
         <v>15</v>
       </c>
-      <c r="C128" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" t="s">
-        <v>7</v>
-      </c>
       <c r="F128" s="2">
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>310802</v>
       </c>
       <c r="B129">
         <v>16</v>
       </c>
-      <c r="C129" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
       <c r="F129" s="2">
         <v>14.942528735632186</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>310998</v>
       </c>
@@ -3026,7 +2608,7 @@
         <v>57.42574257425742</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>310998</v>
       </c>
@@ -3046,7 +2628,7 @@
         <v>76.363636363636374</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>310998</v>
       </c>
@@ -3066,7 +2648,7 @@
         <v>57.499999999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>310998</v>
       </c>
@@ -3086,7 +2668,7 @@
         <v>67.10526315789474</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>310998</v>
       </c>
@@ -3106,7 +2688,7 @@
         <v>24.031007751937985</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>310998</v>
       </c>
@@ -3126,7 +2708,7 @@
         <v>32.692307692307693</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>310998</v>
       </c>
@@ -3146,7 +2728,7 @@
         <v>16.161616161616163</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>310998</v>
       </c>
@@ -3166,19 +2748,13 @@
         <v>30.555555555555557</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>310998</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
-      <c r="C138" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
-      </c>
       <c r="E138" s="2">
         <v>84.482758620689651</v>
       </c>
@@ -3186,19 +2762,13 @@
         <v>43.61702127659575</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>310998</v>
       </c>
       <c r="B139">
         <v>10</v>
       </c>
-      <c r="C139" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" t="s">
-        <v>7</v>
-      </c>
       <c r="E139" s="2">
         <v>94.444444444444443</v>
       </c>
@@ -3206,19 +2776,13 @@
         <v>73.68421052631578</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>310998</v>
       </c>
       <c r="B140">
         <v>11</v>
       </c>
-      <c r="C140" t="s">
-        <v>7</v>
-      </c>
-      <c r="D140" t="s">
-        <v>7</v>
-      </c>
       <c r="E140" s="2">
         <v>85.245901639344254</v>
       </c>
@@ -3226,19 +2790,13 @@
         <v>29.787234042553191</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>310998</v>
       </c>
       <c r="B141">
         <v>12</v>
       </c>
-      <c r="C141" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" t="s">
-        <v>7</v>
-      </c>
       <c r="E141" s="2">
         <v>93.069306930693074</v>
       </c>
@@ -3246,19 +2804,13 @@
         <v>49.253731343283583</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>310998</v>
       </c>
       <c r="B142">
         <v>13</v>
       </c>
-      <c r="C142" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142" t="s">
-        <v>7</v>
-      </c>
       <c r="E142" s="2">
         <v>80.898876404494374</v>
       </c>
@@ -3266,19 +2818,13 @@
         <v>9.9009900990099009</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>310998</v>
       </c>
       <c r="B143">
         <v>14</v>
       </c>
-      <c r="C143" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
       <c r="E143" s="2">
         <v>77.192982456140342</v>
       </c>
@@ -3286,47 +2832,29 @@
         <v>21.052631578947366</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>310998</v>
       </c>
       <c r="B144">
         <v>15</v>
       </c>
-      <c r="C144" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" t="s">
-        <v>7</v>
-      </c>
       <c r="F144" s="2">
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>310998</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
       <c r="F145" s="2">
         <v>30.813953488372093</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>311078</v>
       </c>
@@ -3346,7 +2874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>311078</v>
       </c>
@@ -3366,7 +2894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>311078</v>
       </c>
@@ -3386,7 +2914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>311078</v>
       </c>
@@ -3406,7 +2934,7 @@
         <v>95.833333333333343</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>311078</v>
       </c>
@@ -3426,7 +2954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>311078</v>
       </c>
@@ -3446,7 +2974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>311078</v>
       </c>
@@ -3456,9 +2984,6 @@
       <c r="C152" s="2">
         <v>0</v>
       </c>
-      <c r="D152" t="s">
-        <v>7</v>
-      </c>
       <c r="E152" s="2">
         <v>16.949152542372879</v>
       </c>
@@ -3466,7 +2991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>311078</v>
       </c>
@@ -3476,9 +3001,6 @@
       <c r="C153" s="2">
         <v>1.0869565217391304</v>
       </c>
-      <c r="D153" t="s">
-        <v>7</v>
-      </c>
       <c r="E153" s="2">
         <v>33.333333333333329</v>
       </c>
@@ -3486,19 +3008,13 @@
         <v>85.534591194968556</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>311078</v>
       </c>
       <c r="B154">
         <v>9</v>
       </c>
-      <c r="C154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154" t="s">
-        <v>7</v>
-      </c>
       <c r="E154" s="2">
         <v>43.269230769230774</v>
       </c>
@@ -3506,19 +3022,13 @@
         <v>87.272727272727266</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>311078</v>
       </c>
       <c r="B155">
         <v>10</v>
       </c>
-      <c r="C155" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" t="s">
-        <v>7</v>
-      </c>
       <c r="E155" s="2">
         <v>15.328467153284672</v>
       </c>
@@ -3526,19 +3036,13 @@
         <v>30.487804878048781</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>311078</v>
       </c>
       <c r="B156">
         <v>11</v>
       </c>
-      <c r="C156" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156" t="s">
-        <v>7</v>
-      </c>
       <c r="E156" s="2">
         <v>11.794871794871794</v>
       </c>
@@ -3546,19 +3050,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>311078</v>
       </c>
       <c r="B157">
         <v>12</v>
       </c>
-      <c r="C157" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
-      </c>
       <c r="E157" s="2">
         <v>33.734939759036145</v>
       </c>
@@ -3566,19 +3064,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>311078</v>
       </c>
       <c r="B158">
         <v>13</v>
       </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" t="s">
-        <v>7</v>
-      </c>
       <c r="E158" s="2">
         <v>10.559006211180124</v>
       </c>
@@ -3586,19 +3078,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>311078</v>
       </c>
       <c r="B159">
         <v>14</v>
       </c>
-      <c r="C159" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" t="s">
-        <v>7</v>
-      </c>
       <c r="E159" s="2">
         <v>54.377880184331794</v>
       </c>
@@ -3606,47 +3092,23 @@
         <v>34.45945945945946</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>311078</v>
       </c>
       <c r="B160">
         <v>15</v>
       </c>
-      <c r="C160" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>311078</v>
       </c>
       <c r="B161">
         <v>16</v>
       </c>
-      <c r="C161" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>311151</v>
       </c>
@@ -3666,7 +3128,7 @@
         <v>93.548387096774192</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>311151</v>
       </c>
@@ -3686,7 +3148,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>311151</v>
       </c>
@@ -3706,7 +3168,7 @@
         <v>67.37588652482269</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>311151</v>
       </c>
@@ -3726,7 +3188,7 @@
         <v>80.555555555555557</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>311151</v>
       </c>
@@ -3746,7 +3208,7 @@
         <v>31.03448275862069</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>311151</v>
       </c>
@@ -3766,7 +3228,7 @@
         <v>13.385826771653544</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>311151</v>
       </c>
@@ -3786,7 +3248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>311151</v>
       </c>
@@ -3806,19 +3268,13 @@
         <v>11.864406779661017</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>311151</v>
       </c>
       <c r="B170">
         <v>9</v>
       </c>
-      <c r="C170" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" t="s">
-        <v>7</v>
-      </c>
       <c r="E170" s="2">
         <v>30.208333333333332</v>
       </c>
@@ -3826,19 +3282,13 @@
         <v>14.285714285714285</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>311151</v>
       </c>
       <c r="B171">
         <v>10</v>
       </c>
-      <c r="C171" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" t="s">
-        <v>7</v>
-      </c>
       <c r="E171" s="2">
         <v>26.984126984126984</v>
       </c>
@@ -3846,19 +3296,13 @@
         <v>13.829787234042554</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>311151</v>
       </c>
       <c r="B172">
         <v>11</v>
       </c>
-      <c r="C172" t="s">
-        <v>7</v>
-      </c>
-      <c r="D172" t="s">
-        <v>7</v>
-      </c>
       <c r="E172" s="2">
         <v>37.5</v>
       </c>
@@ -3866,19 +3310,13 @@
         <v>33.82352941176471</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>311151</v>
       </c>
       <c r="B173">
         <v>12</v>
       </c>
-      <c r="C173" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" t="s">
-        <v>7</v>
-      </c>
       <c r="E173" s="2">
         <v>21.052631578947366</v>
       </c>
@@ -3886,19 +3324,13 @@
         <v>48.387096774193552</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>311151</v>
       </c>
       <c r="B174">
         <v>13</v>
       </c>
-      <c r="C174" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" t="s">
-        <v>7</v>
-      </c>
       <c r="E174" s="2">
         <v>50</v>
       </c>
@@ -3906,19 +3338,13 @@
         <v>28.440366972477065</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>311151</v>
       </c>
       <c r="B175">
         <v>14</v>
       </c>
-      <c r="C175" t="s">
-        <v>7</v>
-      </c>
-      <c r="D175" t="s">
-        <v>7</v>
-      </c>
       <c r="E175" s="2">
         <v>45.925925925925924</v>
       </c>
@@ -3926,47 +3352,23 @@
         <v>19.736842105263158</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>311151</v>
       </c>
       <c r="B176">
         <v>15</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>311151</v>
       </c>
       <c r="B177">
         <v>16</v>
       </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>311206</v>
       </c>
@@ -3986,7 +3388,7 @@
         <v>25.806451612903224</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>311206</v>
       </c>
@@ -4006,7 +3408,7 @@
         <v>19.318181818181817</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>311206</v>
       </c>
@@ -4026,7 +3428,7 @@
         <v>48.684210526315788</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>311206</v>
       </c>
@@ -4046,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>311206</v>
       </c>
@@ -4066,7 +3468,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>311206</v>
       </c>
@@ -4086,7 +3488,7 @@
         <v>15.384615384615385</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>311206</v>
       </c>
@@ -4106,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>311206</v>
       </c>
@@ -4126,19 +3528,13 @@
         <v>1.0869565217391304</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>311206</v>
       </c>
       <c r="B186">
         <v>9</v>
       </c>
-      <c r="C186" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" t="s">
-        <v>7</v>
-      </c>
       <c r="E186" s="2">
         <v>53.333333333333336</v>
       </c>
@@ -4146,19 +3542,13 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>311206</v>
       </c>
       <c r="B187">
         <v>10</v>
       </c>
-      <c r="C187" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" t="s">
-        <v>7</v>
-      </c>
       <c r="E187" s="2">
         <v>44</v>
       </c>
@@ -4166,19 +3556,13 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>311206</v>
       </c>
       <c r="B188">
         <v>11</v>
       </c>
-      <c r="C188" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" t="s">
-        <v>7</v>
-      </c>
       <c r="E188" s="2">
         <v>51.612903225806448</v>
       </c>
@@ -4186,19 +3570,13 @@
         <v>10.309278350515463</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>311206</v>
       </c>
       <c r="B189">
         <v>12</v>
       </c>
-      <c r="C189" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189" t="s">
-        <v>7</v>
-      </c>
       <c r="E189" s="2">
         <v>60</v>
       </c>
@@ -4206,19 +3584,13 @@
         <v>55.737704918032783</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>311206</v>
       </c>
       <c r="B190">
         <v>13</v>
       </c>
-      <c r="C190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190" t="s">
-        <v>7</v>
-      </c>
       <c r="E190" s="2">
         <v>44.036697247706428</v>
       </c>
@@ -4226,19 +3598,13 @@
         <v>44.26229508196721</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>311206</v>
       </c>
       <c r="B191">
         <v>14</v>
       </c>
-      <c r="C191" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
-      </c>
       <c r="E191" s="2">
         <v>8.4337349397590362</v>
       </c>
@@ -4246,47 +3612,29 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>311206</v>
       </c>
       <c r="B192">
         <v>15</v>
       </c>
-      <c r="C192" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" t="s">
-        <v>7</v>
-      </c>
       <c r="F192" s="2">
         <v>31.746031746031743</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>311206</v>
       </c>
       <c r="B193">
         <v>16</v>
       </c>
-      <c r="C193" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" t="s">
-        <v>7</v>
-      </c>
       <c r="F193" s="2">
         <v>10.687022900763358</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>311383</v>
       </c>
@@ -4306,7 +3654,7 @@
         <v>95.305164319248831</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>311383</v>
       </c>
@@ -4326,7 +3674,7 @@
         <v>73.584905660377359</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>311383</v>
       </c>
@@ -4346,7 +3694,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>311383</v>
       </c>
@@ -4366,7 +3714,7 @@
         <v>40.727272727272727</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>311383</v>
       </c>
@@ -4386,7 +3734,7 @@
         <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>311383</v>
       </c>
@@ -4406,7 +3754,7 @@
         <v>50.871080139372829</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>311383</v>
       </c>
@@ -4426,7 +3774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>311383</v>
       </c>
@@ -4446,19 +3794,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>311383</v>
       </c>
       <c r="B202">
         <v>9</v>
       </c>
-      <c r="C202" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
       <c r="E202" s="2">
         <v>100</v>
       </c>
@@ -4466,19 +3808,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>311383</v>
       </c>
       <c r="B203">
         <v>10</v>
       </c>
-      <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" t="s">
-        <v>7</v>
-      </c>
       <c r="E203" s="2">
         <v>100</v>
       </c>
@@ -4486,19 +3822,13 @@
         <v>91.970802919708035</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>311383</v>
       </c>
       <c r="B204">
         <v>11</v>
       </c>
-      <c r="C204" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" t="s">
-        <v>7</v>
-      </c>
       <c r="E204" s="2">
         <v>100</v>
       </c>
@@ -4506,19 +3836,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>311383</v>
       </c>
       <c r="B205">
         <v>12</v>
       </c>
-      <c r="C205" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" t="s">
-        <v>7</v>
-      </c>
       <c r="E205" s="2">
         <v>100</v>
       </c>
@@ -4526,19 +3850,13 @@
         <v>36.086956521739133</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>311383</v>
       </c>
       <c r="B206">
         <v>13</v>
       </c>
-      <c r="C206" t="s">
-        <v>7</v>
-      </c>
-      <c r="D206" t="s">
-        <v>7</v>
-      </c>
       <c r="E206" s="2">
         <v>100</v>
       </c>
@@ -4546,19 +3864,13 @@
         <v>82.608695652173907</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>311383</v>
       </c>
       <c r="B207">
         <v>14</v>
       </c>
-      <c r="C207" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" t="s">
-        <v>7</v>
-      </c>
       <c r="E207" s="2">
         <v>81.196581196581192</v>
       </c>
@@ -4566,47 +3878,29 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>311383</v>
       </c>
       <c r="B208">
         <v>15</v>
       </c>
-      <c r="C208" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" t="s">
-        <v>7</v>
-      </c>
       <c r="F208" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>311383</v>
       </c>
       <c r="B209">
         <v>16</v>
       </c>
-      <c r="C209" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" t="s">
-        <v>7</v>
-      </c>
       <c r="F209" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>311385</v>
       </c>
@@ -4626,7 +3920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>311385</v>
       </c>
@@ -4646,7 +3940,7 @@
         <v>53.559322033898304</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>311385</v>
       </c>
@@ -4666,7 +3960,7 @@
         <v>45.054945054945058</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>311385</v>
       </c>
@@ -4686,7 +3980,7 @@
         <v>61.842105263157897</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>311385</v>
       </c>
@@ -4706,7 +4000,7 @@
         <v>41.818181818181813</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>311385</v>
       </c>
@@ -4726,7 +4020,7 @@
         <v>88.108108108108112</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>311385</v>
       </c>
@@ -4746,7 +4040,7 @@
         <v>25.707547169811324</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>311385</v>
       </c>
@@ -4766,19 +4060,13 @@
         <v>46.060606060606062</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>311385</v>
       </c>
       <c r="B218">
         <v>9</v>
       </c>
-      <c r="C218" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" t="s">
-        <v>7</v>
-      </c>
       <c r="E218" s="2">
         <v>19.477911646586346</v>
       </c>
@@ -4786,19 +4074,13 @@
         <v>50.128534704370175</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>311385</v>
       </c>
       <c r="B219">
         <v>10</v>
       </c>
-      <c r="C219" t="s">
-        <v>7</v>
-      </c>
-      <c r="D219" t="s">
-        <v>7</v>
-      </c>
       <c r="E219" s="2">
         <v>24.38095238095238</v>
       </c>
@@ -4806,19 +4088,13 @@
         <v>62.568306010928964</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>311385</v>
       </c>
       <c r="B220">
         <v>11</v>
       </c>
-      <c r="C220" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" t="s">
-        <v>7</v>
-      </c>
       <c r="E220" s="2">
         <v>26.847290640394089</v>
       </c>
@@ -4826,19 +4102,13 @@
         <v>29.80132450331126</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>311385</v>
       </c>
       <c r="B221">
         <v>12</v>
       </c>
-      <c r="C221" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" t="s">
-        <v>7</v>
-      </c>
       <c r="E221" s="2">
         <v>10.057471264367816</v>
       </c>
@@ -4846,19 +4116,13 @@
         <v>71.884057971014499</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>311385</v>
       </c>
       <c r="B222">
         <v>13</v>
       </c>
-      <c r="C222" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" t="s">
-        <v>7</v>
-      </c>
       <c r="E222" s="2">
         <v>62.449799196787147</v>
       </c>
@@ -4866,19 +4130,13 @@
         <v>70.238095238095227</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>311385</v>
       </c>
       <c r="B223">
         <v>14</v>
       </c>
-      <c r="C223" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" t="s">
-        <v>7</v>
-      </c>
       <c r="E223" s="2">
         <v>60.909090909090914</v>
       </c>
@@ -4886,47 +4144,23 @@
         <v>70.967741935483872</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>311385</v>
       </c>
       <c r="B224">
         <v>15</v>
       </c>
-      <c r="C224" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" t="s">
-        <v>7</v>
-      </c>
-      <c r="F224" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>311385</v>
       </c>
       <c r="B225">
         <v>16</v>
       </c>
-      <c r="C225" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" t="s">
-        <v>7</v>
-      </c>
-      <c r="F225" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>311600</v>
       </c>
@@ -4946,7 +4180,7 @@
         <v>38.04347826086957</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>311600</v>
       </c>
@@ -4966,7 +4200,7 @@
         <v>31.351351351351354</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>311600</v>
       </c>
@@ -4986,7 +4220,7 @@
         <v>40.145985401459853</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>311600</v>
       </c>
@@ -5006,7 +4240,7 @@
         <v>27.645051194539249</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>311600</v>
       </c>
@@ -5026,7 +4260,7 @@
         <v>16.477272727272727</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>311600</v>
       </c>
@@ -5046,7 +4280,7 @@
         <v>30.630630630630627</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>311600</v>
       </c>
@@ -5066,7 +4300,7 @@
         <v>54.340836012861736</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>311600</v>
       </c>
@@ -5086,19 +4320,13 @@
         <v>51.891891891891895</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>311600</v>
       </c>
       <c r="B234">
         <v>9</v>
       </c>
-      <c r="C234" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
-      </c>
       <c r="E234" s="2">
         <v>57.333333333333336</v>
       </c>
@@ -5106,19 +4334,13 @@
         <v>43.801652892561982</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>311600</v>
       </c>
       <c r="B235">
         <v>10</v>
       </c>
-      <c r="C235" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" t="s">
-        <v>7</v>
-      </c>
       <c r="E235" s="2">
         <v>61.333333333333329</v>
       </c>
@@ -5126,19 +4348,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>311600</v>
       </c>
       <c r="B236">
         <v>11</v>
       </c>
-      <c r="C236" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" t="s">
-        <v>7</v>
-      </c>
       <c r="E236" s="2">
         <v>100</v>
       </c>
@@ -5146,19 +4362,13 @@
         <v>30.666666666666664</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>311600</v>
       </c>
       <c r="B237">
         <v>12</v>
       </c>
-      <c r="C237" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" t="s">
-        <v>7</v>
-      </c>
       <c r="E237" s="2">
         <v>100</v>
       </c>
@@ -5166,19 +4376,13 @@
         <v>53.353658536585371</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>311600</v>
       </c>
       <c r="B238">
         <v>13</v>
       </c>
-      <c r="C238" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" t="s">
-        <v>7</v>
-      </c>
       <c r="E238" s="2">
         <v>100</v>
       </c>
@@ -5186,19 +4390,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>311600</v>
       </c>
       <c r="B239">
         <v>14</v>
       </c>
-      <c r="C239" t="s">
-        <v>7</v>
-      </c>
-      <c r="D239" t="s">
-        <v>7</v>
-      </c>
       <c r="E239" s="2">
         <v>95.762711864406782</v>
       </c>
@@ -5206,47 +4404,29 @@
         <v>55.483870967741936</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>311600</v>
       </c>
       <c r="B240">
         <v>15</v>
       </c>
-      <c r="C240" t="s">
-        <v>7</v>
-      </c>
-      <c r="D240" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" t="s">
-        <v>7</v>
-      </c>
       <c r="F240" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>311600</v>
       </c>
       <c r="B241">
         <v>16</v>
       </c>
-      <c r="C241" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" t="s">
-        <v>7</v>
-      </c>
       <c r="F241" s="2">
         <v>57.377049180327866</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>311642</v>
       </c>
@@ -5266,7 +4446,7 @@
         <v>40.350877192982452</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>311642</v>
       </c>
@@ -5286,7 +4466,7 @@
         <v>24.691358024691358</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>311642</v>
       </c>
@@ -5306,15 +4486,15 @@
         <v>68.253968253968253</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>311642</v>
       </c>
       <c r="B245">
         <v>4</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>6</v>
+      <c r="C245" s="3">
+        <v>2.1875</v>
       </c>
       <c r="D245" s="2">
         <v>4.5801526717557248</v>
@@ -5326,7 +4506,7 @@
         <v>37.333333333333336</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>311642</v>
       </c>
@@ -5346,7 +4526,7 @@
         <v>36.601307189542482</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>311642</v>
       </c>
@@ -5366,7 +4546,7 @@
         <v>69.902912621359221</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>311642</v>
       </c>
@@ -5386,7 +4566,7 @@
         <v>64.601769911504419</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>311642</v>
       </c>
@@ -5406,19 +4586,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>311642</v>
       </c>
       <c r="B250">
         <v>9</v>
       </c>
-      <c r="C250" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" t="s">
-        <v>7</v>
-      </c>
       <c r="E250" s="2">
         <v>82.242990654205599</v>
       </c>
@@ -5426,19 +4600,13 @@
         <v>67.901234567901241</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>311642</v>
       </c>
       <c r="B251">
         <v>10</v>
       </c>
-      <c r="C251" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" t="s">
-        <v>7</v>
-      </c>
       <c r="E251" s="2">
         <v>55.555555555555557</v>
       </c>
@@ -5446,19 +4614,13 @@
         <v>77.358490566037744</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>311642</v>
       </c>
       <c r="B252">
         <v>11</v>
       </c>
-      <c r="C252" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" t="s">
-        <v>7</v>
-      </c>
       <c r="E252" s="2">
         <v>11.029411764705882</v>
       </c>
@@ -5466,19 +4628,13 @@
         <v>88.75</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>311642</v>
       </c>
       <c r="B253">
         <v>12</v>
       </c>
-      <c r="C253" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" t="s">
-        <v>7</v>
-      </c>
       <c r="E253" s="2">
         <v>100</v>
       </c>
@@ -5486,19 +4642,13 @@
         <v>77.777777777777786</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>311642</v>
       </c>
       <c r="B254">
         <v>13</v>
       </c>
-      <c r="C254" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" t="s">
-        <v>7</v>
-      </c>
       <c r="E254" s="2">
         <v>17.5</v>
       </c>
@@ -5506,19 +4656,13 @@
         <v>30.952380952380953</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>311642</v>
       </c>
       <c r="B255">
         <v>14</v>
       </c>
-      <c r="C255" t="s">
-        <v>7</v>
-      </c>
-      <c r="D255" t="s">
-        <v>7</v>
-      </c>
       <c r="E255" s="2">
         <v>30.681818181818183</v>
       </c>
@@ -5526,47 +4670,29 @@
         <v>43.410852713178294</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>311642</v>
       </c>
       <c r="B256">
         <v>15</v>
       </c>
-      <c r="C256" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" t="s">
-        <v>7</v>
-      </c>
       <c r="F256" s="2">
         <v>33.838383838383841</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>311642</v>
       </c>
       <c r="B257">
         <v>16</v>
       </c>
-      <c r="C257" t="s">
-        <v>7</v>
-      </c>
-      <c r="D257" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257" t="s">
-        <v>7</v>
-      </c>
       <c r="F257" s="2">
         <v>90.566037735849065</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>311677</v>
       </c>
@@ -5586,7 +4712,7 @@
         <v>99.159663865546221</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>311677</v>
       </c>
@@ -5606,7 +4732,7 @@
         <v>58.82352941176471</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>311677</v>
       </c>
@@ -5626,7 +4752,7 @@
         <v>58.192090395480221</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>311677</v>
       </c>
@@ -5646,7 +4772,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>311677</v>
       </c>
@@ -5666,7 +4792,7 @@
         <v>62.352941176470587</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>311677</v>
       </c>
@@ -5686,7 +4812,7 @@
         <v>70.491803278688522</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>311677</v>
       </c>
@@ -5706,16 +4832,13 @@
         <v>69.135802469135797</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>311677</v>
       </c>
       <c r="B265">
         <v>8</v>
       </c>
-      <c r="C265" t="s">
-        <v>7</v>
-      </c>
       <c r="D265" s="2">
         <v>76.576576576576571</v>
       </c>
@@ -5726,19 +4849,13 @@
         <v>98.290598290598282</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>311677</v>
       </c>
       <c r="B266">
         <v>9</v>
       </c>
-      <c r="C266" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" t="s">
-        <v>7</v>
-      </c>
       <c r="E266" s="2">
         <v>73.91304347826086</v>
       </c>
@@ -5746,19 +4863,13 @@
         <v>76.223776223776213</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>311677</v>
       </c>
       <c r="B267">
         <v>10</v>
       </c>
-      <c r="C267" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
       <c r="E267" s="2">
         <v>72.5</v>
       </c>
@@ -5766,19 +4877,13 @@
         <v>54.237288135593218</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>311677</v>
       </c>
       <c r="B268">
         <v>11</v>
       </c>
-      <c r="C268" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" t="s">
-        <v>7</v>
-      </c>
       <c r="E268" s="2">
         <v>41.95804195804196</v>
       </c>
@@ -5786,19 +4891,13 @@
         <v>94.545454545454547</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>311677</v>
       </c>
       <c r="B269">
         <v>12</v>
       </c>
-      <c r="C269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" t="s">
-        <v>7</v>
-      </c>
       <c r="E269" s="2">
         <v>27.966101694915253</v>
       </c>
@@ -5806,19 +4905,13 @@
         <v>30.303030303030305</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>311677</v>
       </c>
       <c r="B270">
         <v>13</v>
       </c>
-      <c r="C270" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270" t="s">
-        <v>7</v>
-      </c>
       <c r="E270" s="2">
         <v>75.238095238095241</v>
       </c>
@@ -5826,19 +4919,13 @@
         <v>22.916666666666664</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>311677</v>
       </c>
       <c r="B271">
         <v>14</v>
       </c>
-      <c r="C271" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" t="s">
-        <v>7</v>
-      </c>
       <c r="E271" s="2">
         <v>43.846153846153847</v>
       </c>
@@ -5846,43 +4933,31 @@
         <v>54.700854700854705</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>311677</v>
       </c>
       <c r="B272">
         <v>15</v>
-      </c>
-      <c r="C272" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" t="s">
-        <v>7</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>311677</v>
       </c>
       <c r="B273">
         <v>16</v>
-      </c>
-      <c r="C273" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" t="s">
-        <v>7</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2">
         <v>66.459627329192557</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>311735</v>
       </c>
@@ -5902,7 +4977,7 @@
         <v>19.230769230769234</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>311735</v>
       </c>
@@ -5922,7 +4997,7 @@
         <v>58.82352941176471</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>311735</v>
       </c>
@@ -5942,7 +5017,7 @@
         <v>50.370370370370367</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>311735</v>
       </c>
@@ -5962,7 +5037,7 @@
         <v>31.612903225806448</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>311735</v>
       </c>
@@ -5972,9 +5047,6 @@
       <c r="C278" s="2">
         <v>0</v>
       </c>
-      <c r="D278" t="s">
-        <v>7</v>
-      </c>
       <c r="E278" s="2">
         <v>94.623655913978496</v>
       </c>
@@ -5982,7 +5054,7 @@
         <v>89.344262295081961</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>311735</v>
       </c>
@@ -5992,9 +5064,6 @@
       <c r="C279" s="2">
         <v>5.2631578947368416</v>
       </c>
-      <c r="D279" t="s">
-        <v>7</v>
-      </c>
       <c r="E279" s="2">
         <v>100</v>
       </c>
@@ -6002,7 +5071,7 @@
         <v>65.413533834586474</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>311735</v>
       </c>
@@ -6012,9 +5081,6 @@
       <c r="C280" s="2">
         <v>0</v>
       </c>
-      <c r="D280" t="s">
-        <v>7</v>
-      </c>
       <c r="E280" s="2">
         <v>100</v>
       </c>
@@ -6022,7 +5088,7 @@
         <v>62.091503267973856</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>311735</v>
       </c>
@@ -6032,9 +5098,6 @@
       <c r="C281" s="2">
         <v>0</v>
       </c>
-      <c r="D281" t="s">
-        <v>7</v>
-      </c>
       <c r="E281" s="2">
         <v>100</v>
       </c>
@@ -6042,19 +5105,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>311735</v>
       </c>
       <c r="B282">
         <v>9</v>
       </c>
-      <c r="C282" t="s">
-        <v>7</v>
-      </c>
-      <c r="D282" t="s">
-        <v>7</v>
-      </c>
       <c r="E282" s="2">
         <v>100</v>
       </c>
@@ -6062,19 +5119,13 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>311735</v>
       </c>
       <c r="B283">
         <v>10</v>
       </c>
-      <c r="C283" t="s">
-        <v>7</v>
-      </c>
-      <c r="D283" t="s">
-        <v>7</v>
-      </c>
       <c r="E283" s="2">
         <v>100</v>
       </c>
@@ -6082,19 +5133,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>311735</v>
       </c>
       <c r="B284">
         <v>11</v>
       </c>
-      <c r="C284" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" t="s">
-        <v>7</v>
-      </c>
       <c r="E284" s="2">
         <v>94.660194174757279</v>
       </c>
@@ -6102,19 +5147,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>311735</v>
       </c>
       <c r="B285">
         <v>12</v>
       </c>
-      <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" t="s">
-        <v>7</v>
-      </c>
       <c r="E285" s="2">
         <v>37.603305785123972</v>
       </c>
@@ -6122,19 +5161,13 @@
         <v>40.865384615384613</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>311735</v>
       </c>
       <c r="B286">
         <v>13</v>
       </c>
-      <c r="C286" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286" t="s">
-        <v>7</v>
-      </c>
       <c r="E286" s="2">
         <v>44.654088050314463</v>
       </c>
@@ -6142,19 +5175,13 @@
         <v>36.470588235294116</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>311735</v>
       </c>
       <c r="B287">
         <v>14</v>
       </c>
-      <c r="C287" t="s">
-        <v>7</v>
-      </c>
-      <c r="D287" t="s">
-        <v>7</v>
-      </c>
       <c r="E287" s="2">
         <v>42.605633802816897</v>
       </c>
@@ -6162,47 +5189,23 @@
         <v>63.333333333333329</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>311735</v>
       </c>
       <c r="B288">
         <v>15</v>
       </c>
-      <c r="C288" t="s">
-        <v>7</v>
-      </c>
-      <c r="D288" t="s">
-        <v>7</v>
-      </c>
-      <c r="E288" t="s">
-        <v>7</v>
-      </c>
-      <c r="F288" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>311735</v>
       </c>
       <c r="B289">
         <v>16</v>
       </c>
-      <c r="C289" t="s">
-        <v>7</v>
-      </c>
-      <c r="D289" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" t="s">
-        <v>7</v>
-      </c>
-      <c r="F289" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>311795</v>
       </c>
@@ -6222,7 +5225,7 @@
         <v>96.396396396396398</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>311795</v>
       </c>
@@ -6242,7 +5245,7 @@
         <v>77.528089887640448</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>311795</v>
       </c>
@@ -6262,7 +5265,7 @@
         <v>85.416666666666657</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>311795</v>
       </c>
@@ -6282,7 +5285,7 @@
         <v>93.902439024390233</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>311795</v>
       </c>
@@ -6302,7 +5305,7 @@
         <v>91.588785046728972</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>311795</v>
       </c>
@@ -6322,7 +5325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>311795</v>
       </c>
@@ -6342,7 +5345,7 @@
         <v>81.132075471698116</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>311795</v>
       </c>
@@ -6362,19 +5365,13 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>311795</v>
       </c>
       <c r="B298">
         <v>9</v>
       </c>
-      <c r="C298" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298" t="s">
-        <v>7</v>
-      </c>
       <c r="E298" s="2">
         <v>50</v>
       </c>
@@ -6382,19 +5379,13 @@
         <v>56.410256410256409</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>311795</v>
       </c>
       <c r="B299">
         <v>10</v>
       </c>
-      <c r="C299" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" t="s">
-        <v>7</v>
-      </c>
       <c r="E299" s="2">
         <v>34.920634920634917</v>
       </c>
@@ -6402,19 +5393,13 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>311795</v>
       </c>
       <c r="B300">
         <v>11</v>
       </c>
-      <c r="C300" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" t="s">
-        <v>7</v>
-      </c>
       <c r="E300" s="2">
         <v>80</v>
       </c>
@@ -6422,19 +5407,13 @@
         <v>77.142857142857153</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>311795</v>
       </c>
       <c r="B301">
         <v>12</v>
       </c>
-      <c r="C301" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" t="s">
-        <v>7</v>
-      </c>
       <c r="E301" s="2">
         <v>38.888888888888893</v>
       </c>
@@ -6442,19 +5421,13 @@
         <v>60.215053763440864</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>311795</v>
       </c>
       <c r="B302">
         <v>13</v>
       </c>
-      <c r="C302" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" t="s">
-        <v>7</v>
-      </c>
       <c r="E302" s="2">
         <v>56.60377358490566</v>
       </c>
@@ -6462,19 +5435,13 @@
         <v>62.666666666666671</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>311795</v>
       </c>
       <c r="B303">
         <v>14</v>
       </c>
-      <c r="C303" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" t="s">
-        <v>7</v>
-      </c>
       <c r="E303" s="2">
         <v>80</v>
       </c>
@@ -6482,47 +5449,29 @@
         <v>54.117647058823529</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>311795</v>
       </c>
       <c r="B304">
         <v>15</v>
       </c>
-      <c r="C304" t="s">
-        <v>7</v>
-      </c>
-      <c r="D304" t="s">
-        <v>7</v>
-      </c>
-      <c r="E304" t="s">
-        <v>7</v>
-      </c>
       <c r="F304" s="2">
         <v>44.303797468354425</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>311795</v>
       </c>
       <c r="B305">
         <v>16</v>
       </c>
-      <c r="C305" t="s">
-        <v>7</v>
-      </c>
-      <c r="D305" t="s">
-        <v>7</v>
-      </c>
-      <c r="E305" t="s">
-        <v>7</v>
-      </c>
       <c r="F305" s="2">
         <v>50.819672131147541</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>301161</v>
       </c>
@@ -6542,7 +5491,7 @@
         <v>26.315789473684209</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>301161</v>
       </c>
@@ -6562,7 +5511,7 @@
         <v>26.262626262626267</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>301161</v>
       </c>
@@ -6582,7 +5531,7 @@
         <v>48.214285714285715</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>301161</v>
       </c>
@@ -6602,7 +5551,7 @@
         <v>35.135135135135137</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>301161</v>
       </c>
@@ -6622,7 +5571,7 @@
         <v>47.093023255813954</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>301161</v>
       </c>
@@ -6642,7 +5591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>301161</v>
       </c>
@@ -6662,7 +5611,7 @@
         <v>50.806451612903224</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>301161</v>
       </c>
@@ -6682,7 +5631,7 @@
         <v>76.271186440677965</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>301161</v>
       </c>
@@ -6692,9 +5641,6 @@
       <c r="C314" s="2">
         <v>95.238095238095227</v>
       </c>
-      <c r="D314" t="s">
-        <v>7</v>
-      </c>
       <c r="E314" s="2">
         <v>30.635838150289018</v>
       </c>
@@ -6702,7 +5648,7 @@
         <v>46.212121212121211</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>301161</v>
       </c>
@@ -6712,9 +5658,6 @@
       <c r="C315" s="2">
         <v>20.779220779220779</v>
       </c>
-      <c r="D315" t="s">
-        <v>7</v>
-      </c>
       <c r="E315" s="2">
         <v>45.378151260504204</v>
       </c>
@@ -6722,7 +5665,7 @@
         <v>68.115942028985515</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>301161</v>
       </c>
@@ -6732,9 +5675,6 @@
       <c r="C316" s="2">
         <v>5.6338028169014089</v>
       </c>
-      <c r="D316" t="s">
-        <v>7</v>
-      </c>
       <c r="E316" s="2">
         <v>32.075471698113205</v>
       </c>
@@ -6742,7 +5682,7 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>301161</v>
       </c>
@@ -6752,9 +5692,6 @@
       <c r="C317" s="2">
         <v>22.471910112359549</v>
       </c>
-      <c r="D317" t="s">
-        <v>7</v>
-      </c>
       <c r="E317" s="2">
         <v>21.287128712871286</v>
       </c>
@@ -6762,7 +5699,7 @@
         <v>4.7058823529411766</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>301161</v>
       </c>
@@ -6772,9 +5709,6 @@
       <c r="C318" s="2">
         <v>10.526315789473683</v>
       </c>
-      <c r="D318" t="s">
-        <v>7</v>
-      </c>
       <c r="E318" s="2">
         <v>9.1286307053941904</v>
       </c>
@@ -6782,7 +5716,7 @@
         <v>28.859060402684566</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>301161</v>
       </c>
@@ -6792,9 +5726,6 @@
       <c r="C319" s="2">
         <v>6.8181818181818175</v>
       </c>
-      <c r="D319" t="s">
-        <v>7</v>
-      </c>
       <c r="E319" s="2">
         <v>10.191082802547772</v>
       </c>
@@ -6802,7 +5733,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>301161</v>
       </c>
@@ -6812,17 +5743,11 @@
       <c r="C320" s="2">
         <v>6.4516129032258061</v>
       </c>
-      <c r="D320" t="s">
-        <v>7</v>
-      </c>
-      <c r="E320" t="s">
-        <v>7</v>
-      </c>
       <c r="F320" s="2">
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>301161</v>
       </c>
@@ -6832,116 +5757,110 @@
       <c r="C321" s="2">
         <v>15.384615384615385</v>
       </c>
-      <c r="D321" t="s">
-        <v>7</v>
-      </c>
-      <c r="E321" t="s">
-        <v>7</v>
-      </c>
       <c r="F321" s="2">
         <v>37.647058823529413</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C351" s="2"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C353" s="2"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C354" s="2"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C355" s="2"/>
     </row>
   </sheetData>
